--- a/data/raw/data_raw_experiment_3.xlsx
+++ b/data/raw/data_raw_experiment_3.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="153">
   <si>
     <t>brickRatio</t>
   </si>
@@ -466,6 +466,33 @@
   </si>
   <si>
     <t>Coal</t>
+  </si>
+  <si>
+    <t>substrate</t>
+  </si>
+  <si>
+    <t>ID of substrate</t>
+  </si>
+  <si>
+    <t>see supplementary material on GitHub</t>
+  </si>
+  <si>
+    <t>substrae_13</t>
+  </si>
+  <si>
+    <t>substrate_15</t>
+  </si>
+  <si>
+    <t>substrate_16</t>
+  </si>
+  <si>
+    <t>substrate_17</t>
+  </si>
+  <si>
+    <t>substrate_18</t>
+  </si>
+  <si>
+    <t>substrate_14</t>
   </si>
 </sst>
 </file>
@@ -863,28 +890,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:J73"/>
+    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>101</v>
       </c>
@@ -892,2597 +920,2816 @@
         <v>103</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8">
         <v>43921</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="2">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="G2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="7">
         <v>5.3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>14</v>
       </c>
-      <c r="I2" s="16">
+      <c r="J2" s="16">
         <v>6</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>43921</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="7">
         <v>13.01</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>16</v>
       </c>
-      <c r="I3" s="16">
+      <c r="J3" s="16">
         <v>4</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>43923</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="2">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="G4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="7">
         <v>9.5399999999999991</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>16</v>
       </c>
-      <c r="I4" s="16">
+      <c r="J4" s="16">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8">
         <v>43921</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="2">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>10.98</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>13</v>
       </c>
-      <c r="I5" s="16">
+      <c r="J5" s="16">
         <v>7</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8">
         <v>43923</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>12.97</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>15</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J6" s="16">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>43921</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="2">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>16.41</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>14</v>
       </c>
-      <c r="I7" s="16">
+      <c r="J7" s="16">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="8">
         <v>43921</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="2">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>5.7</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>11</v>
       </c>
-      <c r="I8" s="16">
+      <c r="J8" s="16">
         <v>9</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="8">
         <v>43921</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>13.55</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>14</v>
       </c>
-      <c r="I9" s="16">
+      <c r="J9" s="16">
         <v>6</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="8">
         <v>43923</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>10.72</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>12</v>
       </c>
-      <c r="I10" s="16">
+      <c r="J10" s="16">
         <v>8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8">
         <v>43921</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="2">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="7">
         <v>5.99</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>11</v>
       </c>
-      <c r="I11" s="16">
+      <c r="J11" s="16">
         <v>9</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="8">
         <v>43921</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="7">
         <v>7.04</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>15</v>
       </c>
-      <c r="I12" s="16">
+      <c r="J12" s="16">
         <v>5</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="8">
         <v>43923</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="2">
         <v>30</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="7">
         <v>14.74</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>14</v>
       </c>
-      <c r="I13" s="16">
+      <c r="J13" s="16">
         <v>6</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8">
         <v>43921</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="2">
         <v>30</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="7">
+      <c r="G14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="7">
         <v>7.15</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>14</v>
       </c>
-      <c r="I14" s="16">
+      <c r="J14" s="16">
         <v>6</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="8">
         <v>43921</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="G15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="7">
         <v>14.7</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>16</v>
       </c>
-      <c r="I15" s="16">
+      <c r="J15" s="16">
         <v>4</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="8">
         <v>43921</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="G16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="7">
         <v>5.46</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>6</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <v>14</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="8">
         <v>43923</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>2.2799999999999998</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>14</v>
       </c>
-      <c r="I17" s="16">
+      <c r="J17" s="16">
         <v>6</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="8">
         <v>43923</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="2">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>5.47</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>9</v>
       </c>
-      <c r="I18" s="16">
+      <c r="J18" s="16">
         <v>11</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="8">
         <v>43923</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G19" s="7">
+      <c r="H19" s="7">
         <v>5.0199999999999996</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>17</v>
       </c>
-      <c r="I19" s="16">
+      <c r="J19" s="16">
         <v>3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="8">
         <v>43921</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2">
         <v>30</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G20" s="7">
+      <c r="H20" s="7">
         <v>7.58</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>14</v>
       </c>
-      <c r="I20" s="16">
+      <c r="J20" s="16">
         <v>6</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="8">
         <v>43921</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="2">
         <v>30</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>10.27</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>15</v>
       </c>
-      <c r="I21" s="16">
+      <c r="J21" s="16">
         <v>5</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="8">
         <v>43923</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2">
         <v>30</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="7">
+      <c r="H22" s="7">
         <v>6.91</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>11</v>
       </c>
-      <c r="I22" s="16">
+      <c r="J22" s="16">
         <v>9</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="8">
         <v>43921</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="2">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" s="7">
         <v>10.53</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>13</v>
       </c>
-      <c r="I23" s="16">
+      <c r="J23" s="16">
         <v>7</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="8">
         <v>43923</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2">
         <v>30</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" s="7">
         <v>6.63</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>12</v>
       </c>
-      <c r="I24" s="16">
+      <c r="J24" s="16">
         <v>8</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="8">
         <v>43923</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2">
         <v>30</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
         <v>10.91</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>12</v>
       </c>
-      <c r="I25" s="16">
+      <c r="J25" s="16">
         <v>8</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="8">
         <v>43923</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="2">
         <v>30</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="G26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="7">
         <v>8.9</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>12</v>
       </c>
-      <c r="I26" s="16">
+      <c r="J26" s="16">
         <v>8</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="8">
         <v>43921</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="2">
         <v>30</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="G27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" s="7">
         <v>6.34</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>11</v>
       </c>
-      <c r="I27" s="16">
+      <c r="J27" s="16">
         <v>9</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="8">
         <v>43921</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="2">
         <v>30</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="G28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>14</v>
       </c>
-      <c r="I28" s="16">
+      <c r="J28" s="16">
         <v>6</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="8">
         <v>43923</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="2">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="7">
         <v>12.67</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>12</v>
       </c>
-      <c r="I29" s="16">
+      <c r="J29" s="16">
         <v>8</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="8">
         <v>43921</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="2">
         <v>30</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>2.83</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>15</v>
       </c>
-      <c r="I30" s="16">
+      <c r="J30" s="16">
         <v>5</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="8">
         <v>43923</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="2">
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="7">
         <v>7.28</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>16</v>
       </c>
-      <c r="I31" s="16">
+      <c r="J31" s="16">
         <v>4</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="8">
         <v>43923</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="2">
         <v>30</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
         <v>6.01</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>13</v>
       </c>
-      <c r="I32" s="16">
+      <c r="J32" s="16">
         <v>7</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B33" s="8">
         <v>43921</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="2">
         <v>30</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
         <v>17.190000000000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>13</v>
       </c>
-      <c r="I33" s="16">
+      <c r="J33" s="16">
         <v>7</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="8">
         <v>43923</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>14.02</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>13</v>
       </c>
-      <c r="I34" s="16">
+      <c r="J34" s="16">
         <v>7</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="8">
         <v>43923</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="2">
         <v>30</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>15.85</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>14</v>
       </c>
-      <c r="I35" s="16">
+      <c r="J35" s="16">
         <v>6</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B36" s="8">
         <v>43921</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="2">
         <v>30</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="7">
         <v>7.31</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>8</v>
       </c>
-      <c r="I36" s="16">
+      <c r="J36" s="16">
         <v>12</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="8">
         <v>43923</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="2">
         <v>30</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" s="7">
         <v>5.98</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>11</v>
       </c>
-      <c r="I37" s="16">
+      <c r="J37" s="16">
         <v>9</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="8">
         <v>43923</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2">
         <v>30</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="7">
         <v>12.64</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>12</v>
       </c>
-      <c r="I38" s="16">
+      <c r="J38" s="16">
         <v>8</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="8">
         <v>43921</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="2">
         <v>5</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="7">
+      <c r="G39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="7">
         <v>11.03</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>12</v>
       </c>
-      <c r="I39" s="16">
+      <c r="J39" s="16">
         <v>8</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="8">
         <v>43923</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="2">
         <v>5</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="G40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="7">
         <v>5.36</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>16</v>
       </c>
-      <c r="I40" s="16">
+      <c r="J40" s="16">
         <v>4</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="8">
         <v>43923</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2">
         <v>5</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="7">
+      <c r="G41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="7">
         <v>9.34</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>12</v>
       </c>
-      <c r="I41" s="16">
+      <c r="J41" s="16">
         <v>8</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="8">
         <v>43921</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="2">
         <v>5</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>16.329999999999998</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>16</v>
       </c>
-      <c r="I42" s="16">
+      <c r="J42" s="16">
         <v>4</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B43" s="8">
         <v>43923</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="2">
         <v>5</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>9.1199999999999992</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>11</v>
       </c>
-      <c r="I43" s="16">
+      <c r="J43" s="16">
         <v>9</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B44" s="8">
         <v>43923</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="2">
         <v>5</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>7.07</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>13</v>
       </c>
-      <c r="I44" s="16">
+      <c r="J44" s="16">
         <v>7</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="8">
         <v>43923</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="2">
         <v>5</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="7">
+      <c r="H45" s="7">
         <v>10.8</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>14</v>
       </c>
-      <c r="I45" s="16">
+      <c r="J45" s="16">
         <v>6</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="8">
         <v>43923</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="2">
         <v>5</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G46" s="7">
+      <c r="H46" s="7">
         <v>17.36</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>17</v>
       </c>
-      <c r="I46" s="16">
+      <c r="J46" s="16">
         <v>3</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="8">
         <v>43921</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2">
         <v>5</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>9.44</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>15</v>
       </c>
-      <c r="I47" s="16">
+      <c r="J47" s="16">
         <v>5</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="8">
         <v>43921</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="2">
         <v>5</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="7">
         <v>7.02</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>14</v>
       </c>
-      <c r="I48" s="16">
+      <c r="J48" s="16">
         <v>6</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="8">
         <v>43923</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2">
         <v>5</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="7">
         <v>13.66</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>12</v>
       </c>
-      <c r="I49" s="16">
+      <c r="J49" s="16">
         <v>8</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="8">
         <v>43921</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" s="2">
         <v>5</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="7">
         <v>11.29</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>13</v>
       </c>
-      <c r="I50" s="16">
+      <c r="J50" s="16">
         <v>7</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K50" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B51" s="8">
         <v>43921</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="2">
         <v>5</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="7">
+      <c r="G51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="7">
         <v>3.52</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <v>13</v>
       </c>
-      <c r="I51" s="16">
+      <c r="J51" s="16">
         <v>7</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K51" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B52" s="8">
         <v>43923</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="2">
         <v>5</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="7">
+      <c r="G52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="7">
         <v>1.94</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>7</v>
       </c>
-      <c r="I52" s="16">
+      <c r="J52" s="16">
         <v>13</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K52" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B53" s="8">
         <v>43923</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="2">
         <v>5</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="7">
+      <c r="G53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" s="7">
         <v>4.67</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>16</v>
       </c>
-      <c r="I53" s="16">
+      <c r="J53" s="16">
         <v>4</v>
       </c>
-      <c r="J53" s="2">
+      <c r="K53" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="8">
         <v>43921</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="2">
         <v>5</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G54" s="7">
+      <c r="H54" s="7">
         <v>4.87</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>13</v>
       </c>
-      <c r="I54" s="16">
+      <c r="J54" s="16">
         <v>7</v>
       </c>
-      <c r="J54" s="2">
+      <c r="K54" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="8">
         <v>43923</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="2">
         <v>5</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H55" s="7">
         <v>2.62</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>10</v>
       </c>
-      <c r="I55" s="16">
+      <c r="J55" s="16">
         <v>10</v>
       </c>
-      <c r="J55" s="2">
+      <c r="K55" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B56" s="8">
         <v>43921</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="2">
         <v>5</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="7">
+      <c r="H56" s="7">
         <v>3.67</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>16</v>
       </c>
-      <c r="I56" s="16">
+      <c r="J56" s="16">
         <v>4</v>
       </c>
-      <c r="J56" s="2">
+      <c r="K56" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B57" s="8">
         <v>43921</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2">
         <v>5</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G57" s="7">
+      <c r="H57" s="7">
         <v>12.3</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>15</v>
       </c>
-      <c r="I57" s="16">
+      <c r="J57" s="16">
         <v>5</v>
       </c>
-      <c r="J57" s="2">
+      <c r="K57" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="8">
         <v>43921</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="2">
         <v>5</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G58" s="7">
+      <c r="H58" s="7">
         <v>9.85</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>16</v>
       </c>
-      <c r="I58" s="16">
+      <c r="J58" s="16">
         <v>4</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K58" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B59" s="8">
         <v>43923</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="2">
         <v>5</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G59" s="7">
+      <c r="H59" s="7">
         <v>9.11</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>17</v>
       </c>
-      <c r="I59" s="16">
+      <c r="J59" s="16">
         <v>3</v>
       </c>
-      <c r="J59" s="2">
+      <c r="K59" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B60" s="8">
         <v>43921</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="7">
         <v>11.83</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>15</v>
       </c>
-      <c r="I60" s="16">
+      <c r="J60" s="16">
         <v>5</v>
       </c>
-      <c r="J60" s="2">
+      <c r="K60" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B61" s="8">
         <v>43921</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="2">
         <v>5</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" s="7">
         <v>7.51</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>13</v>
       </c>
-      <c r="I61" s="16">
+      <c r="J61" s="16">
         <v>7</v>
       </c>
-      <c r="J61" s="2">
+      <c r="K61" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B62" s="8">
         <v>43921</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="2">
         <v>5</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" s="7">
         <v>8.27</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>16</v>
       </c>
-      <c r="I62" s="16">
+      <c r="J62" s="16">
         <v>4</v>
       </c>
-      <c r="J62" s="2">
+      <c r="K62" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="8">
         <v>43921</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="G63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" s="7">
         <v>3.05</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>16</v>
       </c>
-      <c r="I63" s="16">
+      <c r="J63" s="16">
         <v>4</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K63" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B64" s="8">
         <v>43923</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="2">
         <v>5</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="G64" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="7">
         <v>7.84</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>11</v>
       </c>
-      <c r="I64" s="16">
+      <c r="J64" s="16">
         <v>9</v>
       </c>
-      <c r="J64" s="2">
+      <c r="K64" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B65" s="8">
         <v>43921</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="2">
         <v>5</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G65" s="7">
+      <c r="G65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" s="7">
         <v>4.54</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>9</v>
       </c>
-      <c r="I65" s="16">
+      <c r="J65" s="16">
         <v>11</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K65" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="8">
         <v>43923</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="2">
         <v>5</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="7">
+      <c r="H66" s="7">
         <v>4.95</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>14</v>
       </c>
-      <c r="I66" s="16">
+      <c r="J66" s="16">
         <v>6</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K66" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="8">
         <v>43923</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="2">
         <v>5</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G67" s="7">
+      <c r="H67" s="7">
         <v>4.96</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="2">
         <v>10</v>
       </c>
-      <c r="I67" s="16">
+      <c r="J67" s="16">
         <v>10</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B68" s="8">
         <v>43923</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="2">
         <v>5</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="7">
+      <c r="H68" s="7">
         <v>3.21</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>15</v>
       </c>
-      <c r="I68" s="16">
+      <c r="J68" s="16">
         <v>5</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K68" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="8">
         <v>43921</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="2">
         <v>5</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G69" s="7">
+      <c r="H69" s="7">
         <v>3.97</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>16</v>
       </c>
-      <c r="I69" s="16">
+      <c r="J69" s="16">
         <v>4</v>
       </c>
-      <c r="J69" s="2">
+      <c r="K69" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="8">
         <v>43921</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="2">
         <v>5</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G70" s="7">
+      <c r="H70" s="7">
         <v>12.23</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>15</v>
       </c>
-      <c r="I70" s="16">
+      <c r="J70" s="16">
         <v>5</v>
       </c>
-      <c r="J70" s="2">
+      <c r="K70" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="8">
         <v>43923</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="2">
         <v>5</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G71" s="7">
+      <c r="H71" s="7">
         <v>6.61</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>13</v>
       </c>
-      <c r="I71" s="16">
+      <c r="J71" s="16">
         <v>7</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="8">
         <v>43921</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="2">
         <v>5</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" s="7">
         <v>14.32</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>16</v>
       </c>
-      <c r="I72" s="16">
+      <c r="J72" s="16">
         <v>4</v>
       </c>
-      <c r="J72" s="2">
+      <c r="K72" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="8">
         <v>43923</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="2">
         <v>5</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" s="7">
         <v>7.4</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="2">
         <v>14</v>
       </c>
-      <c r="I73" s="16">
+      <c r="J73" s="16">
         <v>6</v>
       </c>
-      <c r="J73" s="2">
+      <c r="K73" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G75" s="6"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G77" s="6"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G79" s="6"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G80" s="6"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="6"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="6"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="6"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="6"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85" s="6"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="6"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G87" s="6"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G88" s="6"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="6"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G91" s="6"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G92" s="6"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G93" s="6"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G95" s="6"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G97" s="6"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G98" s="6"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G99" s="6"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G101" s="6"/>
-    </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G102" s="6"/>
-    </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G103" s="6"/>
-    </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G104" s="6"/>
-    </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G105" s="6"/>
-    </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G106" s="6"/>
-    </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G107" s="6"/>
-    </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G108" s="6"/>
-    </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G110" s="6"/>
-    </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G111" s="6"/>
-    </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G112" s="6"/>
-    </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G113" s="6"/>
-    </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G115" s="6"/>
-    </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G117" s="6"/>
-    </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G118" s="6"/>
-    </row>
-    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G120" s="6"/>
-    </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G121" s="6"/>
-    </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G122" s="6"/>
-    </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G123" s="6"/>
-    </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G125" s="6"/>
-    </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G127" s="6"/>
-    </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G128" s="6"/>
-    </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G129" s="6"/>
-    </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G130" s="6"/>
-    </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G131" s="6"/>
-    </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G132" s="6"/>
-    </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G133" s="6"/>
-    </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G134" s="6"/>
-    </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G135" s="6"/>
-    </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G136" s="6"/>
-    </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G137" s="6"/>
-    </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G138" s="6"/>
-    </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G140" s="6"/>
-    </row>
-    <row r="141" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G141" s="6"/>
-    </row>
-    <row r="142" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G142" s="6"/>
-    </row>
-    <row r="143" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G143" s="6"/>
-    </row>
-    <row r="144" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G160" s="6"/>
-    </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G161" s="6"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H141" s="6"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="6"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:G161">
@@ -3496,11 +3743,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3602,16 +3849,16 @@
       <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
+      <c r="A4" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -3630,40 +3877,40 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="7"/>
       <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -3682,10 +3929,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>111</v>
@@ -3709,15 +3956,15 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -3736,16 +3983,14 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>114</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3765,10 +4010,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>114</v>
@@ -3794,10 +4039,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>114</v>
@@ -3809,24 +4054,24 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="7"/>
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>114</v>
@@ -3852,10 +4097,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>114</v>
@@ -3881,10 +4126,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>114</v>
@@ -3910,10 +4155,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>114</v>
@@ -3939,10 +4184,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>114</v>
@@ -3968,10 +4213,10 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>114</v>
@@ -3983,33 +4228,36 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="7"/>
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -4023,20 +4271,19 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="12"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -4050,10 +4297,10 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>116</v>
@@ -4077,17 +4324,15 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>137</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -4105,18 +4350,31 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
+      <c r="A22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="7"/>
       <c r="U22" s="9"/>
     </row>
@@ -4137,6 +4395,8 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="D24" s="2"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -4208,15 +4468,15 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
       <c r="R29" s="7"/>
       <c r="U29" s="9"/>
     </row>
@@ -4292,15 +4552,15 @@
     </row>
     <row r="35" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
       <c r="R35" s="7"/>
       <c r="U35" s="9"/>
     </row>
@@ -4320,10 +4580,10 @@
     </row>
     <row r="37" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -4334,10 +4594,10 @@
     </row>
     <row r="38" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H38" s="10"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
@@ -4376,15 +4636,15 @@
     </row>
     <row r="41" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
       <c r="R41" s="7"/>
       <c r="U41" s="9"/>
     </row>
@@ -4460,15 +4720,15 @@
     </row>
     <row r="47" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H47" s="10"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="7"/>
       <c r="U47" s="9"/>
     </row>
@@ -4544,15 +4804,15 @@
     </row>
     <row r="53" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
       <c r="R53" s="7"/>
       <c r="U53" s="9"/>
     </row>
@@ -4656,15 +4916,15 @@
     </row>
     <row r="61" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H61" s="10"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
       <c r="R61" s="7"/>
       <c r="U61" s="9"/>
     </row>
@@ -4740,15 +5000,15 @@
     </row>
     <row r="67" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
       <c r="R67" s="7"/>
       <c r="U67" s="9"/>
     </row>
@@ -4796,15 +5056,15 @@
     </row>
     <row r="71" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H71" s="10"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
       <c r="R71" s="7"/>
       <c r="U71" s="9"/>
     </row>
@@ -4823,8 +5083,18 @@
       <c r="U72" s="9"/>
     </row>
     <row r="73" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="R73" s="6"/>
-      <c r="U73"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="7"/>
+      <c r="U73" s="9"/>
     </row>
     <row r="74" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R74" s="6"/>
@@ -5173,6 +5443,10 @@
     <row r="160" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R160" s="6"/>
       <c r="U160"/>
+    </row>
+    <row r="161" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R161" s="6"/>
+      <c r="U161"/>
     </row>
   </sheetData>
   <sortState ref="A2:Q163">

--- a/data/raw/data_raw_experiment_3.xlsx
+++ b/data/raw/data_raw_experiment_3.xlsx
@@ -477,9 +477,6 @@
     <t>see supplementary material on GitHub</t>
   </si>
   <si>
-    <t>substrae_13</t>
-  </si>
-  <si>
     <t>substrate_15</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>substrate_14</t>
+  </si>
+  <si>
+    <t>substrate_13</t>
   </si>
 </sst>
 </file>
@@ -892,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:K73"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +955,7 @@
         <v>43921</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2">
         <v>30</v>
@@ -990,7 +990,7 @@
         <v>43921</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2">
         <v>30</v>
@@ -1025,7 +1025,7 @@
         <v>43923</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2">
         <v>30</v>
@@ -1060,7 +1060,7 @@
         <v>43921</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2">
         <v>30</v>
@@ -1095,7 +1095,7 @@
         <v>43923</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2">
         <v>30</v>
@@ -1130,7 +1130,7 @@
         <v>43921</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
@@ -1165,7 +1165,7 @@
         <v>43921</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D8" s="2">
         <v>30</v>
@@ -1200,7 +1200,7 @@
         <v>43921</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2">
         <v>30</v>
@@ -1235,7 +1235,7 @@
         <v>43923</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D10" s="2">
         <v>30</v>
@@ -1270,7 +1270,7 @@
         <v>43921</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2">
         <v>30</v>
@@ -1305,7 +1305,7 @@
         <v>43921</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2">
         <v>30</v>
@@ -1340,7 +1340,7 @@
         <v>43923</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2">
         <v>30</v>
@@ -1375,7 +1375,7 @@
         <v>43921</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="2">
         <v>30</v>
@@ -1410,7 +1410,7 @@
         <v>43921</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2">
         <v>30</v>
@@ -1445,7 +1445,7 @@
         <v>43921</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2">
         <v>30</v>
@@ -1480,7 +1480,7 @@
         <v>43923</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
@@ -1515,7 +1515,7 @@
         <v>43923</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="2">
         <v>30</v>
@@ -1550,7 +1550,7 @@
         <v>43923</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2">
         <v>30</v>
@@ -1585,7 +1585,7 @@
         <v>43921</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="2">
         <v>30</v>
@@ -1620,7 +1620,7 @@
         <v>43921</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2">
         <v>30</v>
@@ -1655,7 +1655,7 @@
         <v>43923</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="2">
         <v>30</v>
@@ -1690,7 +1690,7 @@
         <v>43921</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="2">
         <v>30</v>
@@ -1725,7 +1725,7 @@
         <v>43923</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="2">
         <v>30</v>
@@ -1760,7 +1760,7 @@
         <v>43923</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="2">
         <v>30</v>
@@ -1795,7 +1795,7 @@
         <v>43923</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="2">
         <v>30</v>
@@ -1830,7 +1830,7 @@
         <v>43921</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2">
         <v>30</v>
@@ -1865,7 +1865,7 @@
         <v>43921</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2">
         <v>30</v>
@@ -1900,7 +1900,7 @@
         <v>43923</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2">
         <v>5</v>
@@ -1935,7 +1935,7 @@
         <v>43921</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2">
         <v>30</v>
@@ -1970,7 +1970,7 @@
         <v>43923</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="2">
         <v>30</v>
@@ -2005,7 +2005,7 @@
         <v>43923</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="2">
         <v>30</v>
@@ -2040,7 +2040,7 @@
         <v>43921</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" s="2">
         <v>30</v>
@@ -2075,7 +2075,7 @@
         <v>43923</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2">
         <v>30</v>
@@ -2110,7 +2110,7 @@
         <v>43923</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2">
         <v>30</v>
@@ -2145,7 +2145,7 @@
         <v>43921</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="2">
         <v>30</v>
@@ -2180,7 +2180,7 @@
         <v>43923</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2">
         <v>30</v>
@@ -2215,7 +2215,7 @@
         <v>43923</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2">
         <v>30</v>
@@ -2250,7 +2250,7 @@
         <v>43921</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D39" s="2">
         <v>5</v>
@@ -2285,7 +2285,7 @@
         <v>43923</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>43923</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
@@ -2355,7 +2355,7 @@
         <v>43921</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="2">
         <v>5</v>
@@ -2390,7 +2390,7 @@
         <v>43923</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D43" s="2">
         <v>5</v>
@@ -2425,7 +2425,7 @@
         <v>43923</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
@@ -2460,7 +2460,7 @@
         <v>43923</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2">
         <v>5</v>
@@ -2495,7 +2495,7 @@
         <v>43923</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
@@ -2530,7 +2530,7 @@
         <v>43921</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>
@@ -2565,7 +2565,7 @@
         <v>43921</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
@@ -2600,7 +2600,7 @@
         <v>43923</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
@@ -2635,7 +2635,7 @@
         <v>43921</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
@@ -2670,7 +2670,7 @@
         <v>43921</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
@@ -2705,7 +2705,7 @@
         <v>43923</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
@@ -2740,7 +2740,7 @@
         <v>43923</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
@@ -2775,7 +2775,7 @@
         <v>43921</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
@@ -2810,7 +2810,7 @@
         <v>43923</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
@@ -2845,7 +2845,7 @@
         <v>43921</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
@@ -2880,7 +2880,7 @@
         <v>43921</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
@@ -2915,7 +2915,7 @@
         <v>43921</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
@@ -2950,7 +2950,7 @@
         <v>43923</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
@@ -2985,7 +2985,7 @@
         <v>43921</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
@@ -3020,7 +3020,7 @@
         <v>43921</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" s="2">
         <v>5</v>
@@ -3055,7 +3055,7 @@
         <v>43921</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2">
         <v>5</v>
@@ -3090,7 +3090,7 @@
         <v>43921</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="2">
         <v>5</v>
@@ -3125,7 +3125,7 @@
         <v>43923</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D64" s="2">
         <v>5</v>
@@ -3160,7 +3160,7 @@
         <v>43921</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D65" s="2">
         <v>5</v>
@@ -3195,7 +3195,7 @@
         <v>43923</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
@@ -3230,7 +3230,7 @@
         <v>43923</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="2">
         <v>5</v>
@@ -3265,7 +3265,7 @@
         <v>43923</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D68" s="2">
         <v>5</v>
@@ -3300,7 +3300,7 @@
         <v>43921</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
@@ -3335,7 +3335,7 @@
         <v>43921</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="2">
         <v>5</v>
@@ -3370,7 +3370,7 @@
         <v>43923</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>43921</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2">
         <v>5</v>
@@ -3440,7 +3440,7 @@
         <v>43923</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
